--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyFacBal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACF895-299B-48EE-940A-76CA97099E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7516A4-BADB-4A98-85DF-1A173B1195C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="1860" windowWidth="14400" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -266,24 +266,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸
-990: 催收款項</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>額度業務科目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdAcCode會計科子細目設定檔
-310: 短期擔保放款 
-320: 中期擔保放款
-330: 長期擔保放款
-340: 三十年房貸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -329,11 +312,6 @@
   <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">空白、1.展期一般 2.展期協議
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1</t>
@@ -403,22 +381,6 @@
     <t>(準)利害關係人職稱</t>
   </si>
   <si>
-    <t>共用代碼檔
-01: 董事長
-02: 副董事長
-03: 董事
-04: 監察人
-05: 總經理
-06: 副總經理
-07: 協理
-08: 經理
-09: 副理
-10: 辦理授信職員
-11: 十五日薪
-98: 其他關係人
-99: 非關係人</t>
-  </si>
-  <si>
     <t>RelsCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -598,19 +560,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>00: 正常戶
-02: 催收戶
-03: 結案戶(結清日=本月)
-04: 逾期戶(改為00:正常戶)
-05: 催收結案戶(結清日=本月)
-06: 呆帳戶
-07: 部分轉呆戶
-08: 債權轉讓戶(結清日=本月)
-09: 呆帳結案戶(結清日=本月)
-(不含債協)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ProdNo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -689,22 +638,6 @@
   <si>
     <t>AcctFee</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode:TMI(未收)+F09(墊付)+F25(催收)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode:F07(墊付)+F24(催收)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode:F29(未收)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode:F10(未收)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>法務人員</t>
@@ -812,15 +745,6 @@
   <si>
     <t>逾繳超過清償期12月者</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">11=一之1,   12=一之2,
-21=二之1,   22=二之2,   23=二之3,
-3=三  
-4=四   
-5=五
-此為有擔保金額(PrinBalance-LawAmount)的分類  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>資產五分類代號(有擔保部分)</t>
@@ -884,6 +808,87 @@
   <si>
     <t>00A:傳統帳冊
 201:利變年金帳冊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:正常戶
+02:催收戶
+03:結案戶(結清日=本月)
+04:逾期戶(改為00:正常戶)
+05:催收結案戶(結清日=本月)
+06:呆帳戶
+07:部分轉呆戶
+08:債權轉讓戶(結清日=本月)
+09:呆帳結案戶(結清日=本月)
+(不含債協)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸
+990:催收款項</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode會計科子細目設定檔
+310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:董事長
+02:副董事長
+03:董事
+04:監察人
+05:總經理
+06:副總經理
+07:協理
+08:經理
+09:副理
+10:辦理授信職員
+11:十五日薪
+98:其他關係人
+99:非關係人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">空白、1:展期一般
+2:展期協議
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode：TMI(未收)+F09(墊付)+F25(催收)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode：F07(墊付)+F24(催收)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode：F29(未收)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode：F10(未收)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11:一之1
+12:一之2,
+21:二之1
+22:二之2
+23:二之3
+3:三  
+4:四   
+5:五
+此為有擔保金額(PrinBalance-LawAmount)的分類  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1572,39 +1577,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="29.25" style="3"/>
+    <col min="7" max="7" width="50.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="29.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="28" t="s">
@@ -1618,13 +1623,13 @@
       <c r="G2" s="30"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>18</v>
@@ -1634,7 +1639,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1651,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1663,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1675,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1687,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>0</v>
       </c>
@@ -1706,18 +1711,18 @@
       </c>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="18">
         <v>6</v>
@@ -1726,7 +1731,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1746,7 +1751,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1766,12 +1771,12 @@
       <c r="G11" s="19"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>27</v>
@@ -1786,12 +1791,12 @@
       <c r="G12" s="19"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>50</v>
@@ -1806,15 +1811,15 @@
       <c r="G13" s="19"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>6</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>34</v>
@@ -1824,11 +1829,11 @@
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -1848,12 +1853,12 @@
       <c r="G15" s="19"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>29</v>
@@ -1868,7 +1873,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -1888,15 +1893,15 @@
       <c r="G17" s="19"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>33</v>
@@ -1910,7 +1915,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>11</v>
       </c>
@@ -1932,7 +1937,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>12</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>31</v>
@@ -1952,7 +1957,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>13</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>31</v>
@@ -1972,7 +1977,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="156" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>14</v>
       </c>
@@ -1990,16 +1995,16 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="17" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>62</v>
@@ -2012,19 +2017,19 @@
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="17" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>63</v>
@@ -2034,11 +2039,11 @@
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="17" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>17</v>
       </c>
@@ -2058,7 +2063,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>18</v>
       </c>
@@ -2078,7 +2083,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>19</v>
       </c>
@@ -2100,37 +2105,37 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="19"/>
-      <c r="G28" s="19" t="s">
-        <v>78</v>
+      <c r="G28" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>44</v>
@@ -2142,37 +2147,37 @@
       <c r="G29" s="34"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E30" s="15">
         <v>3</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="21" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>23</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>31</v>
@@ -2181,69 +2186,69 @@
         <v>1</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>24</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E32" s="21">
         <v>2</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>25</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>26</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E34" s="19">
         <v>16</v>
@@ -2254,18 +2259,18 @@
       <c r="G34" s="17"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E35" s="19">
         <v>16</v>
@@ -2276,18 +2281,18 @@
       <c r="G35" s="17"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>28</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E36" s="19">
         <v>16</v>
@@ -2298,18 +2303,18 @@
       <c r="G36" s="17"/>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E37" s="19">
         <v>16</v>
@@ -2320,18 +2325,18 @@
       <c r="G37" s="17"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E38" s="19">
         <v>16</v>
@@ -2342,18 +2347,18 @@
       <c r="G38" s="17"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>31</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E39" s="19">
         <v>16</v>
@@ -2364,18 +2369,18 @@
       <c r="G39" s="17"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E40" s="19">
         <v>16</v>
@@ -2386,18 +2391,18 @@
       <c r="G40" s="17"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>33</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E41" s="19">
         <v>16</v>
@@ -2408,18 +2413,18 @@
       <c r="G41" s="17"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>34</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E42" s="37">
         <v>16</v>
@@ -2428,22 +2433,22 @@
         <v>2</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>35</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43" s="37">
         <v>16</v>
@@ -2452,22 +2457,22 @@
         <v>2</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>36</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44" s="37">
         <v>16</v>
@@ -2476,22 +2481,22 @@
         <v>2</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>37</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="37">
         <v>16</v>
@@ -2500,22 +2505,22 @@
         <v>2</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>38</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46" s="37">
         <v>16</v>
@@ -2524,22 +2529,22 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>39</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E47" s="37">
         <v>16</v>
@@ -2548,22 +2553,22 @@
         <v>2</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>40</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" s="37">
         <v>16</v>
@@ -2574,66 +2579,66 @@
       <c r="G48" s="23"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>41</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E49" s="21">
         <v>1</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>42</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50" s="21">
         <v>2</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>43</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E51" s="21">
         <v>7</v>
@@ -2642,15 +2647,15 @@
       <c r="G51" s="21"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>44</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>31</v>
@@ -2659,25 +2664,25 @@
         <v>2</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>45</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E53" s="19">
         <v>8</v>
@@ -2686,18 +2691,18 @@
       <c r="G53" s="17"/>
       <c r="H53" s="27"/>
     </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>46</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E54" s="37">
         <v>16</v>
@@ -2708,18 +2713,18 @@
       <c r="G54" s="38"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>47</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E55" s="37">
         <v>16</v>
@@ -2730,18 +2735,18 @@
       <c r="G55" s="23"/>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>48</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E56" s="37">
         <v>16</v>
@@ -2752,18 +2757,18 @@
       <c r="G56" s="23"/>
       <c r="H56" s="27"/>
     </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>49</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E57" s="37">
         <v>16</v>
@@ -2774,18 +2779,18 @@
       <c r="G57" s="23"/>
       <c r="H57" s="27"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>50</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" s="19">
         <v>16</v>
@@ -2794,44 +2799,44 @@
         <v>2</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>51</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E59" s="21">
         <v>2</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="39" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H59" s="27"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>52</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E60" s="19">
         <v>6</v>
@@ -2842,7 +2847,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>53</v>
       </c>
@@ -2862,7 +2867,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="27"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>54</v>
       </c>
@@ -2882,7 +2887,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="27"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>55</v>
       </c>
@@ -2902,7 +2907,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>56</v>
       </c>
@@ -2922,15 +2927,15 @@
       <c r="G64" s="19"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>57</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>63</v>
@@ -2940,7 +2945,7 @@
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="39" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2968,15 +2973,15 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2987,12 +2992,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
@@ -3013,15 +3018,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="32.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
@@ -3032,15 +3037,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3058,104 +3063,104 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.25" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
-    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="40" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" s="40" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="40" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="40" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" s="40" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
